--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C134871-9C4A-4B63-8295-D227E9D45977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016911CB-8D99-4B6E-8ED0-63255BD9D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="134">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -81,18 +81,6 @@
   </si>
   <si>
     <t>INDUS_ENTRAIN</t>
-  </si>
-  <si>
-    <t>\RETOUR_FRAUDE_HTP</t>
-  </si>
-  <si>
-    <t>/RETOUR_FRAUDE_HTP/</t>
-  </si>
-  <si>
-    <t>indufraude</t>
-  </si>
-  <si>
-    <t>Etat</t>
   </si>
   <si>
     <t>/RETOUR_INDU_OPTIQUE/</t>
@@ -392,6 +380,60 @@
   </si>
   <si>
     <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\MGEFI\HTP-MGEFI à J</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL à J-1</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL 12mois</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL 15jours</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\EOLE\HTP-EOLE à J</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\EOLE\HTP-EOLE à J-1</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\EOLE\HTP-EOLE12 mois</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\EOLE\HTP-EOLE 15 jours</t>
+  </si>
+  <si>
+    <t>fraude</t>
+  </si>
+  <si>
+    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL à J</t>
+  </si>
+  <si>
+    <t>indufraudeeolej</t>
+  </si>
+  <si>
+    <t>indufraudeeolej1</t>
+  </si>
+  <si>
+    <t>indufraudeeole12mois</t>
+  </si>
+  <si>
+    <t>indufraudeeole15j</t>
+  </si>
+  <si>
+    <t>indufraudeinterialej</t>
+  </si>
+  <si>
+    <t>indufraudeinterialej1</t>
+  </si>
+  <si>
+    <t>indufraudeinteriale12mois</t>
+  </si>
+  <si>
+    <t>indufraudeinteriale15j</t>
   </si>
 </sst>
 </file>
@@ -820,8 +862,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -854,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,37 +925,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" s="11">
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>528</v>
@@ -930,28 +972,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -959,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11">
         <v>429</v>
@@ -968,28 +1010,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -997,37 +1039,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1035,34 +1077,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1070,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>528</v>
@@ -1079,28 +1121,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1108,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
@@ -1117,28 +1159,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1146,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>528</v>
@@ -1155,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>527</v>
@@ -1193,28 +1235,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1243,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>16</v>
@@ -1281,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>3</v>
@@ -1319,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>3</v>
@@ -1345,25 +1387,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>10</v>
@@ -1374,34 +1416,34 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1409,37 +1451,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1447,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="7">
         <v>427</v>
@@ -1456,28 +1498,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,34 +1527,34 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,34 +1562,34 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1555,37 +1597,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1602,47 +1644,328 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10">
-        <v>0</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="11">
+        <v>414</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="11">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="11">
+        <v>414</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="11">
+        <v>414</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="11">
+        <v>414</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="11">
+        <v>414</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="11">
+        <v>414</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="11">
+        <v>414</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="11">
+        <v>414</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="11">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1719,31 +2042,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1751,28 +2074,28 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1780,28 +2103,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1814,8 +2137,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,31 +2158,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016911CB-8D99-4B6E-8ED0-63255BD9D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D8E55-8FC2-479B-95D0-4E385AD546E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,36 +382,9 @@
     <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS</t>
   </si>
   <si>
-    <t>\CQ-FRAUDE\MGEFI\HTP-MGEFI à J</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL à J-1</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL 12mois</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL 15jours</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\EOLE\HTP-EOLE à J</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\EOLE\HTP-EOLE à J-1</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\EOLE\HTP-EOLE12 mois</t>
-  </si>
-  <si>
-    <t>\CQ-FRAUDE\EOLE\HTP-EOLE 15 jours</t>
-  </si>
-  <si>
     <t>fraude</t>
   </si>
   <si>
-    <t>\CQ-FRAUDE\INTERIALE\HTP-INTERIAL à J</t>
-  </si>
-  <si>
     <t>indufraudeeolej</t>
   </si>
   <si>
@@ -434,6 +407,33 @@
   </si>
   <si>
     <t>indufraudeinteriale15j</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/MGEFI/HTP-MGEFI à J</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/INTERIALE/HTP-INTERIAL à J</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/INTERIALE/HTP-INTERIAL à J-1</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/INTERIALE/HTP-INTERIAL 12mois</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/INTERIALE/HTP-INTERIAL 15jours</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/EOLE/HTP-EOLE à J</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/EOLE/HTP-EOLE à J-1</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/EOLE/HTP-EOLE12 mois</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/EOLE/HTP-EOLE 15 jours</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1646,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -1681,7 +1681,7 @@
         <v>64</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>64</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11">
         <v>414</v>
@@ -1719,7 +1719,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>64</v>
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C3" s="11">
         <v>414</v>
@@ -1757,7 +1757,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>64</v>
@@ -1766,16 +1766,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C4" s="11">
         <v>414</v>
@@ -1795,7 +1795,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>64</v>
@@ -1804,16 +1804,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C5" s="11">
         <v>414</v>
@@ -1833,7 +1833,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>64</v>
@@ -1842,16 +1842,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C6" s="11">
         <v>414</v>
@@ -1871,7 +1871,7 @@
         <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>64</v>
@@ -1880,16 +1880,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11">
         <v>414</v>
@@ -1909,7 +1909,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>64</v>
@@ -1918,16 +1918,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C8" s="11">
         <v>414</v>
@@ -1947,7 +1947,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>64</v>
@@ -1956,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D8E55-8FC2-479B-95D0-4E385AD546E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D47BCE7-C5FD-47A0-85C2-BB1A0DA6AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D47BCE7-C5FD-47A0-85C2-BB1A0DA6AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C98914-40E1-4E14-94F9-B4F6DB835910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -862,8 +862,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,8 +1047,8 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
+      <c r="E5" s="4">
+        <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
@@ -1082,8 +1082,8 @@
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
+      <c r="E6" s="4">
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>60</v>
@@ -1120,8 +1120,8 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
+      <c r="E7" s="4">
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -1158,8 +1158,8 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+      <c r="E8" s="4">
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -1196,8 +1196,8 @@
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
+      <c r="E9" s="4">
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>35</v>
@@ -1234,8 +1234,8 @@
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
+      <c r="E10" s="4">
+        <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>37</v>
@@ -1646,8 +1646,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C98914-40E1-4E14-94F9-B4F6DB835910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B1446-C1EF-4E8F-9917-5E7BF7190931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -863,7 +863,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B1446-C1EF-4E8F-9917-5E7BF7190931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA5B8D-B04B-448D-AB14-7CAC3322644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>indurelevedecomptealmerys</t>
   </si>
   <si>
-    <t>Critère d'archivage</t>
-  </si>
-  <si>
     <t>Suivi_traitement_d</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>/CQ-FRAUDE/EOLE/HTP-EOLE 15 jours</t>
+  </si>
+  <si>
+    <t>archivage</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,13 +908,13 @@
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>63</v>
@@ -946,13 +946,13 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>20</v>
@@ -984,16 +984,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>67</v>
@@ -1060,13 +1060,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>72</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>58</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>40</v>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>24</v>
@@ -1209,13 +1209,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>33</v>
@@ -1247,13 +1247,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>33</v>
@@ -1285,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>16</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>3</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>3</v>
@@ -1387,25 +1387,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>10</v>
@@ -1434,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>29</v>
@@ -1466,19 +1466,19 @@
         <v>22</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>23</v>
@@ -1510,16 +1510,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,13 +1545,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>77</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>84</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -1681,7 +1681,7 @@
         <v>64</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>64</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="11">
         <v>414</v>
@@ -1719,7 +1719,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>64</v>
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="11">
         <v>414</v>
@@ -1757,7 +1757,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>64</v>
@@ -1766,16 +1766,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11">
         <v>414</v>
@@ -1795,7 +1795,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>64</v>
@@ -1804,16 +1804,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="11">
         <v>414</v>
@@ -1833,7 +1833,7 @@
         <v>64</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>64</v>
@@ -1842,16 +1842,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11">
         <v>414</v>
@@ -1871,7 +1871,7 @@
         <v>64</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>64</v>
@@ -1880,16 +1880,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11">
         <v>414</v>
@@ -1909,7 +1909,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>64</v>
@@ -1918,16 +1918,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="11">
         <v>414</v>
@@ -1947,7 +1947,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>64</v>
@@ -1956,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2167,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
         <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA5B8D-B04B-448D-AB14-7CAC3322644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4273E-AF0B-4DFB-A2AF-6A7AC7208A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>archivage</t>
+  </si>
+  <si>
+    <t>Motif de non saisie</t>
   </si>
 </sst>
 </file>
@@ -862,8 +865,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>78</v>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4273E-AF0B-4DFB-A2AF-6A7AC7208A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B62AD-CF78-4F05-8906-7F20139B3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>Motif de non saisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motif de non saisie </t>
+  </si>
+  <si>
+    <t>/TRAITEMENT_RETOUR_FACT_STC/SYNTHESE_D'ENVOI_MAIL_RETOUR_STC</t>
+  </si>
+  <si>
+    <t>Modèle</t>
+  </si>
+  <si>
+    <t>mail envoyé OBS ALM PEC</t>
   </si>
 </sst>
 </file>
@@ -541,13 +553,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +877,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,83 +893,83 @@
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="9" width="54" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="54" customWidth="1"/>
+    <col min="11" max="11" width="73.42578125" customWidth="1"/>
     <col min="12" max="12" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>414</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -975,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -999,41 +1011,41 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>429</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1262,41 +1274,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1595,47 +1607,81 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="9"/>
-      <c r="K21" s="9"/>
+    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1667,307 +1713,307 @@
     <col min="12" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>414</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="11">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>414</v>
       </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>414</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>414</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>414</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>414</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>414</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>6</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>414</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>115</v>
       </c>
     </row>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347B62AD-CF78-4F05-8906-7F20139B3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26D1D9-BEE3-43EA-810E-FEA7E0B81B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>mail envoyé OBS ALM PEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motif </t>
   </si>
 </sst>
 </file>
@@ -877,8 +880,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,15 +1698,15 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
@@ -1727,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H1" s="10">
         <v>0</v>
@@ -1765,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H2" s="10">
         <v>2</v>
@@ -1803,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>122</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H3" s="10">
         <v>2</v>
@@ -1841,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H4" s="10">
         <v>3</v>
@@ -1879,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10">
         <v>4</v>
@@ -1917,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H6" s="10">
         <v>5</v>
@@ -1955,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H7" s="10">
         <v>6</v>
@@ -1993,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H8" s="10">
         <v>7</v>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26D1D9-BEE3-43EA-810E-FEA7E0B81B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E5529C-4C7A-4963-8A69-88DAF51FC029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="141">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t xml:space="preserve">Motif </t>
+  </si>
+  <si>
+    <t>suivi</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +895,7 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
     <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="9" width="54" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
@@ -967,7 +970,7 @@
         <v>96</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>96</v>
@@ -1698,7 +1701,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E5529C-4C7A-4963-8A69-88DAF51FC029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99A0A0-5E6B-4810-A50E-59FA79EA78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -452,16 +452,13 @@
   </si>
   <si>
     <t xml:space="preserve">Motif </t>
-  </si>
-  <si>
-    <t>suivi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +489,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,25 +551,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +885,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,789 +904,793 @@
     <col min="12" max="12" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="11">
         <v>414</v>
       </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="11">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
         <v>528</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>429</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="11">
         <v>528</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>528</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>527</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="11">
         <v>2</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <v>427</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="11">
         <v>2</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <v>1</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1719,307 +1724,307 @@
     <col min="12" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="8">
         <v>414</v>
       </c>
-      <c r="D1" s="10">
-        <v>0</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="10">
-        <v>0</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>414</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>414</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>414</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>414</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>4</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>414</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>5</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>414</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>6</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>414</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2153,32 +2158,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2193,7 +2198,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99A0A0-5E6B-4810-A50E-59FA79EA78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AAB28-E384-4574-9374-B055CEB14B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>induoptique</t>
   </si>
   <si>
-    <t>Trame_de_suivi</t>
-  </si>
-  <si>
     <t>/RETOUR_INDU_SANS_NOTIFICATION/</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t xml:space="preserve">Motif </t>
+  </si>
+  <si>
+    <t>traitement</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="11">
         <v>528</v>
@@ -994,28 +994,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11">
         <v>429</v>
@@ -1032,28 +1032,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1073,25 +1073,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="11">
         <v>2</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -1109,25 +1109,25 @@
         <v>7</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="11">
         <v>528</v>
@@ -1147,25 +1147,25 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1</v>
@@ -1185,25 +1185,25 @@
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11">
         <v>528</v>
@@ -1223,25 +1223,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="11">
         <v>527</v>
@@ -1261,25 +1261,25 @@
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>16</v>
@@ -1346,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>3</v>
@@ -1410,25 +1410,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="11">
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>10</v>
@@ -1439,35 +1439,35 @@
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1475,37 +1475,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="11">
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11">
         <v>427</v>
@@ -1525,7 +1525,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>18</v>
@@ -1534,16 +1534,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1551,17 +1551,17 @@
         <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>18</v>
@@ -1570,16 +1570,16 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,35 +1587,35 @@
         <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1661,37 +1661,37 @@
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="11">
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="K21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="8">
         <v>414</v>
@@ -1738,28 +1738,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="8">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8">
         <v>414</v>
@@ -1776,28 +1776,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8">
         <v>414</v>
@@ -1814,28 +1814,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8">
         <v>414</v>
@@ -1852,28 +1852,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="8">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="8">
         <v>414</v>
@@ -1890,28 +1890,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="8">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8">
         <v>414</v>
@@ -1928,28 +1928,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="8">
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="8">
         <v>414</v>
@@ -1966,28 +1966,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="8">
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="8">
         <v>414</v>
@@ -2004,28 +2004,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="8">
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2102,31 +2102,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -2152,10 +2152,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
         <v>76</v>
-      </c>
-      <c r="J16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2163,28 +2163,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2218,31 +2218,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AAB28-E384-4574-9374-B055CEB14B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907EF39-D8F1-4D46-8863-7E9F903E1C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907EF39-D8F1-4D46-8863-7E9F903E1C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6D5D-966C-4812-AEF6-0FA7BB6C5DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -567,6 +567,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,8 +885,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +936,7 @@
       <c r="J1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>94</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -973,7 +974,7 @@
       <c r="J2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -1087,7 +1088,7 @@
       <c r="J5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>98</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -1161,7 +1162,7 @@
       <c r="J7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>100</v>
       </c>
       <c r="L7" s="11" t="s">
@@ -1199,7 +1200,7 @@
       <c r="J8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -1237,7 +1238,7 @@
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="13" t="s">
         <v>102</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -1275,7 +1276,7 @@
       <c r="J10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="13" t="s">
         <v>103</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -1313,7 +1314,7 @@
       <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>104</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -1351,7 +1352,7 @@
       <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -1389,7 +1390,7 @@
       <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="13" t="s">
         <v>106</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -1427,7 +1428,7 @@
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="13" t="s">
         <v>107</v>
       </c>
       <c r="L14" s="11" t="s">
@@ -1463,7 +1464,7 @@
       <c r="J15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -1501,7 +1502,7 @@
       <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L16" s="11" t="s">
@@ -1575,7 +1576,7 @@
       <c r="J18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L18" s="11" t="s">
@@ -1611,7 +1612,7 @@
       <c r="J19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="13" t="s">
         <v>112</v>
       </c>
       <c r="L19" s="11" t="s">
@@ -1649,7 +1650,7 @@
       <c r="J20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="13" t="s">
         <v>113</v>
       </c>
       <c r="L20" s="11" t="s">
@@ -1687,7 +1688,7 @@
       <c r="J21" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="13" t="s">
         <v>135</v>
       </c>
       <c r="L21" s="11" t="s">
@@ -1707,7 +1708,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2199,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2218,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C1" t="s">

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6D5D-966C-4812-AEF6-0FA7BB6C5DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE6328-FDF8-4C7B-BFD5-28A6A73487EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -161,9 +161,6 @@
     <t>/RETOUR_INDU_SE/</t>
   </si>
   <si>
-    <t>Suivi_de_traitement_d</t>
-  </si>
-  <si>
     <t>induse</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
   </si>
   <si>
     <t>/RETOUR_INDU_AUDIO/</t>
-  </si>
-  <si>
-    <t>Trame_de_suivi_</t>
   </si>
   <si>
     <t>induaudio</t>
@@ -292,12 +286,6 @@
     <t>indurelevedecomptealmerys</t>
   </si>
   <si>
-    <t>Suivi_traitement_d</t>
-  </si>
-  <si>
-    <t>Trame des presaisies d</t>
-  </si>
-  <si>
     <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS/</t>
   </si>
   <si>
@@ -452,6 +440,15 @@
   </si>
   <si>
     <t>traitement</t>
+  </si>
+  <si>
+    <t>suivi</t>
+  </si>
+  <si>
+    <t>Trame des presaisies</t>
+  </si>
+  <si>
+    <t>/RETOUR_VALIDATIONS_DE_PRESAISIES_INDUS</t>
   </si>
 </sst>
 </file>
@@ -885,7 +882,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -919,28 +916,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -969,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11">
         <v>528</v>
@@ -995,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11">
         <v>429</v>
@@ -1033,28 +1030,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1074,25 +1071,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="11">
         <v>2</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1100,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -1110,25 +1107,25 @@
         <v>7</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1157,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>39</v>
@@ -1195,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>23</v>
@@ -1233,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>32</v>
@@ -1271,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>32</v>
@@ -1309,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>16</v>
@@ -1347,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>3</v>
@@ -1385,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>3</v>
@@ -1411,25 +1408,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H14" s="11">
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>10</v>
@@ -1459,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>28</v>
@@ -1479,31 +1476,31 @@
         <v>20</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H16" s="11">
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>22</v>
@@ -1526,7 +1523,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>18</v>
@@ -1535,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,17 +1549,17 @@
         <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>18</v>
@@ -1571,16 +1568,16 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1588,35 +1585,35 @@
         <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1624,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1645,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1662,37 +1659,37 @@
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="11">
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="8">
         <v>414</v>
@@ -1739,28 +1736,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" s="8">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8">
         <v>414</v>
@@ -1777,28 +1774,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="8">
         <v>414</v>
@@ -1815,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8">
         <v>414</v>
@@ -1853,28 +1850,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="8">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8">
         <v>414</v>
@@ -1891,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="8">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8">
         <v>414</v>
@@ -1929,28 +1926,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="8">
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8">
         <v>414</v>
@@ -1967,28 +1964,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="8">
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8">
         <v>414</v>
@@ -2005,28 +2002,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="8">
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2103,31 +2100,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2135,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -2153,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2219,31 +2216,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AE6328-FDF8-4C7B-BFD5-28A6A73487EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6ED3AF-CFD0-4D62-AA0B-6CF0F2BF6137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -286,9 +286,6 @@
     <t>indurelevedecomptealmerys</t>
   </si>
   <si>
-    <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS/</t>
-  </si>
-  <si>
     <t>Encaissement</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>/RETOUR_TT_CHEQUES</t>
   </si>
   <si>
-    <t>/RETOUR_VALIDATIONS_DES_PRESAISIES_INDUS</t>
-  </si>
-  <si>
     <t>fraude</t>
   </si>
   <si>
@@ -449,6 +443,9 @@
   </si>
   <si>
     <t>/RETOUR_VALIDATIONS_DE_PRESAISIES_INDUS</t>
+  </si>
+  <si>
+    <t>/RETOUR_VALIDATIONS_DE_PRESAISIES_INDUS/</t>
   </si>
 </sst>
 </file>
@@ -882,8 +879,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,13 +925,13 @@
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>61</v>
@@ -966,16 +963,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,28 +989,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,28 +1027,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>69</v>
@@ -1116,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>56</v>
@@ -1154,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>39</v>
@@ -1192,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>23</v>
@@ -1230,13 +1227,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>32</v>
@@ -1268,13 +1265,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>32</v>
@@ -1306,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>16</v>
@@ -1344,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>3</v>
@@ -1382,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>3</v>
@@ -1408,25 +1405,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" s="11">
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>10</v>
@@ -1456,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>28</v>
@@ -1488,19 +1485,19 @@
         <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="11">
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>22</v>
@@ -1532,13 +1529,13 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>74</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>76</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>75</v>
@@ -1568,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>76</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>74</v>
@@ -1604,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>47</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>81</v>
@@ -1642,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>50</v>
@@ -1680,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="8">
         <v>414</v>
@@ -1736,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>71</v>
@@ -1748,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8">
         <v>414</v>
@@ -1774,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>71</v>
@@ -1786,16 +1783,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8">
         <v>414</v>
@@ -1812,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>71</v>
@@ -1824,16 +1821,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8">
         <v>414</v>
@@ -1850,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>71</v>
@@ -1862,16 +1859,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8">
         <v>414</v>
@@ -1888,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>71</v>
@@ -1900,16 +1897,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8">
         <v>414</v>
@@ -1926,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>71</v>
@@ -1938,16 +1935,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8">
         <v>414</v>
@@ -1964,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>71</v>
@@ -1976,16 +1973,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8">
         <v>414</v>
@@ -2002,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>71</v>
@@ -2014,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2225,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -2240,7 +2237,7 @@
         <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6ED3AF-CFD0-4D62-AA0B-6CF0F2BF6137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE22FB-2F59-4B06-B8A2-28A9B10F512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE22FB-2F59-4B06-B8A2-28A9B10F512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CE104-CACF-49B3-9DF5-0C0DECEEC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>induoptique</t>
-  </si>
-  <si>
-    <t>/RETOUR_INDU_SANS_NOTIFICATION/</t>
   </si>
   <si>
     <t>indusansnotif</t>
@@ -346,9 +343,6 @@
     <t>/RETOUR_FRAUDE/PEC refus</t>
   </si>
   <si>
-    <t>/RETOUR_INDU_SANS_NOTIFICATION</t>
-  </si>
-  <si>
     <t>/RETOUR_INDU_SE</t>
   </si>
   <si>
@@ -446,6 +440,15 @@
   </si>
   <si>
     <t>/RETOUR_VALIDATIONS_DE_PRESAISIES_INDUS/</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDU_SANS_NOTIFICATION/ALMERYS</t>
+  </si>
+  <si>
+    <t>/RETOUR_INDU_SANS_NOTIFICATION/CBTP</t>
+  </si>
+  <si>
+    <t>indusansnotifcbtp</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11">
         <v>414</v>
@@ -913,28 +916,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="11">
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -963,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11">
         <v>528</v>
@@ -989,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="11">
         <v>429</v>
@@ -1027,28 +1030,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1068,25 +1071,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="H5" s="11">
         <v>2</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -1104,25 +1107,25 @@
         <v>7</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11">
         <v>528</v>
@@ -1142,25 +1145,25 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1</v>
@@ -1180,25 +1183,25 @@
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1206,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11">
         <v>528</v>
@@ -1218,25 +1221,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11">
         <v>527</v>
@@ -1256,25 +1259,25 @@
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1303,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>16</v>
@@ -1341,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>3</v>
@@ -1379,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>3</v>
@@ -1405,25 +1408,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" s="11">
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>10</v>
@@ -1434,35 +1437,35 @@
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1470,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="11">
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11">
         <v>427</v>
@@ -1520,7 +1523,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>18</v>
@@ -1529,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1546,17 +1549,17 @@
         <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>18</v>
@@ -1565,16 +1568,16 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1582,35 +1585,35 @@
         <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1618,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1639,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1656,37 +1659,75 @@
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="11">
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="8">
         <v>414</v>
@@ -1733,28 +1774,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="8">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="8">
         <v>414</v>
@@ -1771,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="8">
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="8">
         <v>414</v>
@@ -1809,28 +1850,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8">
         <v>414</v>
@@ -1847,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8">
         <v>414</v>
@@ -1885,28 +1926,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="8">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="8">
         <v>414</v>
@@ -1923,28 +1964,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="8">
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="8">
         <v>414</v>
@@ -1961,28 +2002,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="8">
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8">
         <v>414</v>
@@ -1999,28 +2040,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="8">
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2097,31 +2138,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -2147,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
         <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2158,28 +2199,28 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2213,31 +2254,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
         <v>85</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CE104-CACF-49B3-9DF5-0C0DECEEC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083111-2E01-4040-93D7-227AB4439DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>indufraudeinteriale15j</t>
-  </si>
-  <si>
-    <t>/CQ-FRAUDE/MGEFI/HTP-MGEFI à J</t>
   </si>
   <si>
     <t>/CQ-FRAUDE/INTERIALE/HTP-INTERIAL à J</t>
@@ -882,8 +879,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,13 +966,13 @@
         <v>89</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>89</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="11">
         <v>2</v>
@@ -1030,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="11">
         <v>2</v>
@@ -1045,13 +1042,13 @@
         <v>91</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="11">
         <v>2</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>78</v>
@@ -1494,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>21</v>
@@ -1556,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>74</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>80</v>
@@ -1642,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="L20" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>49</v>
@@ -1680,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="K21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>78</v>
@@ -1709,7 +1706,7 @@
         <v>79</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>86</v>
@@ -1718,13 +1715,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>21</v>
@@ -1742,14 +1739,14 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>111</v>
@@ -1786,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>106</v>
@@ -1803,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8">
         <v>414</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>112</v>
@@ -1824,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>106</v>
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8">
         <v>414</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>113</v>
@@ -1862,13 +1859,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>106</v>
@@ -1879,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8">
         <v>414</v>
@@ -1888,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>114</v>
@@ -1900,13 +1897,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>106</v>
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8">
         <v>414</v>
@@ -1926,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>107</v>
@@ -1938,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>106</v>
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" s="8">
         <v>414</v>
@@ -1964,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>108</v>
@@ -1976,13 +1973,13 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>106</v>
@@ -1993,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C7" s="8">
         <v>414</v>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>109</v>
@@ -2014,13 +2011,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>106</v>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C8" s="8">
         <v>414</v>
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>110</v>
@@ -2052,13 +2049,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>106</v>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083111-2E01-4040-93D7-227AB4439DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675B7BD-3453-4BAE-876C-B79914D033F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -1740,7 +1740,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReportingInduserveur.xlsx
+++ b/ReportingInduserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675B7BD-3453-4BAE-876C-B79914D033F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727EE24-C1E0-4469-AEA2-D27D14509C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>indusansnotifcbtp</t>
+  </si>
+  <si>
+    <t>/CQ-FRAUDE/EOLE/HTP-EOLE 12 mois</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1742,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,13 +2014,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>106</v>
